--- a/SchemaDesign.xlsx
+++ b/SchemaDesign.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/38b99a77b7f98cf3/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shoshana Swiatycki\source\repos\CampScheduler\CampScheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{550DDC97-744D-41E4-B8B8-8320A67A0B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1050BE59-BD84-429B-A420-C5648566D8A3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CD8F3F-CD7B-4886-8244-C2FA374823F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2CABF4FB-A07A-4BC0-883F-3259FCE11DA5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{2CABF4FB-A07A-4BC0-883F-3259FCE11DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={751717FF-BDE8-44AC-B837-3F0EB0D9B344}</author>
+  </authors>
+  <commentList>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{751717FF-BDE8-44AC-B837-3F0EB0D9B344}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Dates, Times</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
   <si>
     <t>Bunk</t>
   </si>
@@ -62,12 +80,6 @@
     <t>Activity</t>
   </si>
   <si>
-    <t>MinInstances</t>
-  </si>
-  <si>
-    <t>MaxInstances</t>
-  </si>
-  <si>
     <t>AgeGroupActivity</t>
   </si>
   <si>
@@ -98,15 +110,9 @@
     <t>LocationTimeUnavailability</t>
   </si>
   <si>
-    <t>ActivityTimeAvailability</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
-    <t>GroupId</t>
-  </si>
-  <si>
     <t>ActivityDateUnavailability</t>
   </si>
   <si>
@@ -143,9 +149,6 @@
     <t>SpecialId</t>
   </si>
   <si>
-    <t>ScheduleConstants</t>
-  </si>
-  <si>
     <t>MaxStartTime</t>
   </si>
   <si>
@@ -177,6 +180,69 @@
   </si>
   <si>
     <t>Indoor?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t>LocationId null</t>
+  </si>
+  <si>
+    <t>ScheduleConstant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title </t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>StaffDateUnavailability</t>
+  </si>
+  <si>
+    <t>StaffId</t>
+  </si>
+  <si>
+    <t>StaffActivityBunk</t>
+  </si>
+  <si>
+    <t>StaffScheduleConstantBunk</t>
+  </si>
+  <si>
+    <t>ActivityLocation</t>
+  </si>
+  <si>
+    <t>(Leagues and workshops)</t>
+  </si>
+  <si>
+    <t>NeedsOpponent</t>
+  </si>
+  <si>
+    <t>EntireAgeGroup</t>
+  </si>
+  <si>
+    <t>MinInstancesPerSeason</t>
+  </si>
+  <si>
+    <t>MaxInstancesPerSeason</t>
+  </si>
+  <si>
+    <t>GroupId null</t>
+  </si>
+  <si>
+    <t>GroupTypeEnumerator</t>
+  </si>
+  <si>
+    <t>NotBackToBack</t>
+  </si>
+  <si>
+    <t>NotInSameDay</t>
+  </si>
+  <si>
+    <t>BackToBack</t>
+  </si>
+  <si>
+    <t>StaffTImeUnvailability</t>
   </si>
 </sst>
 </file>
@@ -255,6 +321,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Shoshana Swiatycki" id="{72322802-2829-4995-8916-7493F4E50E6C}" userId="38b99a77b7f98cf3" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -552,12 +624,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="M1" dT="2023-07-19T20:45:07.17" personId="{72322802-2829-4995-8916-7493F4E50E6C}" id="{751717FF-BDE8-44AC-B837-3F0EB0D9B344}">
+    <text>Dates, Times</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49CF20E4-9977-4A2E-B3EC-6E3C1F3865E9}">
-  <dimension ref="A1:K28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49CF20E4-9977-4A2E-B3EC-6E3C1F3865E9}">
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,32 +645,38 @@
     <col min="1" max="1" width="17.88671875" customWidth="1"/>
     <col min="3" max="3" width="24.5546875" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -601,234 +687,311 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
       <c r="K2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1"/>
       <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" t="s">
         <v>30</v>
       </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E11" t="s">
-        <v>22</v>
+      <c r="I10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E11" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G25" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="G26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="G28" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/SchemaDesign.xlsx
+++ b/SchemaDesign.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shoshana Swiatycki\source\repos\CampScheduler\CampScheduler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Source\Repos\CampScheduler\CampScheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CD8F3F-CD7B-4886-8244-C2FA374823F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09603124-5733-4065-A051-234F4782514D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{2CABF4FB-A07A-4BC0-883F-3259FCE11DA5}"/>
+    <workbookView xWindow="2490" yWindow="1470" windowWidth="15375" windowHeight="7875" xr2:uid="{2CABF4FB-A07A-4BC0-883F-3259FCE11DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,10 +40,19 @@
   <commentList>
     <comment ref="M1" authorId="0" shapeId="0" xr:uid="{751717FF-BDE8-44AC-B837-3F0EB0D9B344}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Dates, Times</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -54,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
   <si>
     <t>Bunk</t>
   </si>
@@ -243,6 +249,9 @@
   </si>
   <si>
     <t>StaffTImeUnvailability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">certain client setting </t>
   </si>
 </sst>
 </file>
@@ -636,23 +645,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49CF20E4-9977-4A2E-B3EC-6E3C1F3865E9}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -676,7 +685,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -699,7 +708,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -722,7 +731,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -742,7 +751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>13</v>
       </c>
@@ -757,7 +766,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>57</v>
       </c>
@@ -765,7 +774,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,7 +788,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -793,7 +802,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -804,7 +813,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -818,7 +827,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
@@ -829,7 +838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>6</v>
       </c>
@@ -837,7 +846,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
@@ -848,7 +857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -860,7 +869,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -871,7 +880,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -885,7 +894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -894,7 +903,7 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -902,7 +911,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -914,7 +923,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -925,7 +934,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E21" s="1" t="s">
         <v>51</v>
       </c>
@@ -933,7 +942,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>20</v>
       </c>
@@ -941,7 +950,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
@@ -949,12 +958,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -962,7 +971,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
@@ -973,17 +982,23 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
       <c r="G27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>63</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
